--- a/Person/石泽宇/任务4/用户故事.xlsx
+++ b/Person/石泽宇/任务4/用户故事.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6B345C6-B9E8-4EAF-9AF9-656790F726E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{523CAAFA-D949-4DB3-BE08-132758C9C69F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{137D07A6-0541-4C13-9700-CD3324E50684}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
   <si>
     <t>分类</t>
   </si>
@@ -156,6 +156,18 @@
   </si>
   <si>
     <t>作为一个家长，我希望能够在教具商店中购买商品，以便于及时给孩子获得有用的教具</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">石泽宇 </t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017011855</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017级4班</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -164,10 +176,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="180" formatCode="_ &quot;€&quot;\ * #,##0.00_ ;_ &quot;€&quot;\ * \-#,##0.00_ ;_ &quot;€&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="186" formatCode="&quot;€&quot;\ #,##0.00;[Red]&quot;€&quot;\ #,##0.00"/>
-    <numFmt numFmtId="187" formatCode="d/mm/yyyy;@"/>
-    <numFmt numFmtId="197" formatCode="0;\-0;;@\ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;€&quot;\ * #,##0.00_ ;_ &quot;€&quot;\ * \-#,##0.00_ ;_ &quot;€&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="&quot;€&quot;\ #,##0.00;[Red]&quot;€&quot;\ #,##0.00"/>
+    <numFmt numFmtId="178" formatCode="d/mm/yyyy;@"/>
+    <numFmt numFmtId="179" formatCode="0;\-0;;@\ "/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -396,21 +408,21 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="186" fontId="1" fillId="5" borderId="7">
+    <xf numFmtId="177" fontId="1" fillId="5" borderId="7">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="7" applyNumberFormat="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="187" fontId="2" fillId="7" borderId="7" applyNumberFormat="0">
+    <xf numFmtId="178" fontId="2" fillId="7" borderId="7" applyNumberFormat="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -444,7 +456,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="197" fontId="4" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="4" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -458,6 +470,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -782,16 +797,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B984C99E-9811-4756-B0F3-37D0AF7A3EBA}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="8" customWidth="1"/>
-    <col min="2" max="2" width="9.875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="11.75" style="8" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="54.5" style="8" customWidth="1"/>
     <col min="5" max="5" width="12.75" style="8" customWidth="1"/>
@@ -1079,6 +1094,17 @@
         <v>60</v>
       </c>
     </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:F14">
     <sortCondition descending="1" ref="F1"/>

--- a/Person/石泽宇/任务4/用户故事.xlsx
+++ b/Person/石泽宇/任务4/用户故事.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{523CAAFA-D949-4DB3-BE08-132758C9C69F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8F67073-0F08-4834-B26B-84B451FA2603}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{137D07A6-0541-4C13-9700-CD3324E50684}"/>
   </bookViews>
@@ -800,7 +800,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -848,7 +848,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="11">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F2" s="12">
         <v>99</v>
@@ -868,7 +868,7 @@
         <v>14</v>
       </c>
       <c r="E3" s="11">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F3" s="14">
         <v>98</v>
@@ -934,23 +934,23 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="24" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="13" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>27</v>
       </c>
       <c r="E7" s="11">
         <v>1</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="12">
         <v>92</v>
       </c>
     </row>
@@ -962,10 +962,10 @@
         <v>5</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E8" s="11">
         <v>1</v>
@@ -998,23 +998,23 @@
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E10" s="11">
         <v>1</v>
       </c>
       <c r="F10" s="12">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="24" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1022,16 +1022,16 @@
         <v>5</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="E11" s="11">
         <v>1</v>
       </c>
-      <c r="F11" s="12">
-        <v>80</v>
+      <c r="F11" s="14">
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="24" x14ac:dyDescent="0.2">
@@ -1106,7 +1106,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:F14">
+  <sortState ref="A2:F15">
     <sortCondition descending="1" ref="F1"/>
   </sortState>
   <phoneticPr fontId="7" type="noConversion"/>
